--- a/case1_220308/output_v1.0_220310.xlsx
+++ b/case1_220308/output_v1.0_220310.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t>CASH FLOW</t>
   </si>
   <si>
-    <t>Written at: 2022.03.10 00:18:37</t>
+    <t>Written at: 2022.03.10 07:23:20</t>
   </si>
   <si>
     <t>output_v1.0_220310.xlsx</t>
@@ -80,19 +80,22 @@
     <t>Fob_tra</t>
   </si>
   <si>
-    <t>Cost</t>
-  </si>
-  <si>
     <t>lnd</t>
   </si>
   <si>
-    <t>levy</t>
+    <t>토지매입비</t>
+  </si>
+  <si>
+    <t>분부담금</t>
   </si>
   <si>
     <t>cstrn</t>
   </si>
   <si>
-    <t>adcstrn</t>
+    <t>공사비</t>
+  </si>
+  <si>
+    <t>간접공사비</t>
   </si>
   <si>
     <t>상환_equity</t>
@@ -111,6 +114,9 @@
   </si>
   <si>
     <t>FINANCING</t>
+  </si>
+  <si>
+    <t>Written at: 2022.03.10 07:23:21</t>
   </si>
   <si>
     <t>Notional_tra</t>
@@ -536,14 +542,17 @@
       <c r="P6" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="R6" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="T6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -596,19 +605,19 @@
         <v>23</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -3009,12 +3018,12 @@
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -3030,12 +3039,12 @@
         <v>8</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:30">
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>18</v>
@@ -3047,7 +3056,7 @@
         <v>20</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>19</v>
@@ -3056,102 +3065,102 @@
         <v>17</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:30">
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="P8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="AA8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:30">
